--- a/OFFERS-207/ru/ru.xlsx
+++ b/OFFERS-207/ru/ru.xlsx
@@ -388,12 +388,12 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve">Butterfly </v>
+        <v xml:space="preserve">Choker </v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Choker</v>
+        <v>Butterfly</v>
       </c>
     </row>
     <row r="4">
@@ -633,12 +633,12 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v xml:space="preserve">Butterfly </v>
+        <v xml:space="preserve">Choker </v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Choker</v>
+        <v>Butterfly</v>
       </c>
     </row>
     <row r="53">
@@ -760,7 +760,7 @@
 	&lt;header class="intro"&gt;
 		&lt;div class="intro__top"&gt;
 			&lt;div class="text_top"&gt;
-				&lt;h2 class="intro_title"&gt;&lt;span data-translate="2"&gt;Butterfly  &lt;/span&gt;&lt;b&gt;&lt;span data-translate="3"&gt;Choker&lt;/span&gt;&lt;/b&gt;
+				&lt;h2 class="intro_title"&gt;&lt;span data-translate="2"&gt;Choker &lt;/span&gt;&lt;b&gt;&lt;span data-translate="3"&gt;Butterfly&lt;/span&gt;&lt;/b&gt;
 				&lt;/h2&gt;
 				&lt;p class="intro__subtitle"&gt;&lt;span data-translate="4"&gt;Стиль и роскошь в каждой детали &lt;/span&gt;&lt;/p&gt;
 			&lt;/div&gt;
@@ -792,13 +792,15 @@
 			&lt;p class="sub-title"&gt;&lt;span data-translate="15"&gt;Стильная и оригинальная цепочка с 5 подвесками в виде бабочек&lt;/span&gt;&lt;/p&gt;
 			&lt;br&gt;
 			&lt;img src="img/sect1_1.jpg" alt&gt;
-			&lt;p class="text"&gt;&lt;span data-translate="16"&gt;У Choker Butterfly  есть </v>
+			&lt;p class="text"&gt;&lt;span data-translate="16"&gt;У Choker Butterfly есть вс</v>
       </c>
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str" xml:space="preserve">
-        <v xml:space="preserve">все для того чтобы покорить даже самую взыскательную ценительницу украшений.&lt;/span&gt;&lt;/p&gt;
-			&lt;p class="text"&gt;&lt;span data-translate="17"&gt;Чоппер имеет&lt;/span&gt;&lt;b&gt;&lt;span data-translate="18"&gt;оригинальный дизайн и непревзойденное качество.&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="19"&gt;Сложно устоять перед такой красотой. &lt;/span&gt;&lt;/p&gt;
+        <v xml:space="preserve">е для того чтобы покорить даже самую взыскательную ценительницу
+				украшений.&lt;/span&gt;&lt;/p&gt;
+			&lt;p class="text"&gt;&lt;span data-translate="17"&gt;Чоппер имеет&lt;/span&gt;&lt;b&gt;&lt;span data-translate="18"&gt;оригинальный дизайн и непревзойденное качество.&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="19"&gt;Сложно устоять перед
+				такой красотой. &lt;/span&gt;&lt;/p&gt;
 			&lt;p class="text"&gt;&lt;span data-translate="20"&gt;Именно такое украшение стоит дарить любимой девушке, подруге или дорогому человеку –&lt;/span&gt;&lt;b&gt;&lt;span data-translate="21"&gt;этот подарок запомнится навсегда!&lt;/span&gt;&lt;/b&gt;
 			&lt;/p&gt;
 			&lt;br&gt;
@@ -820,7 +822,7 @@
 			&lt;div class="sect3__item"&gt;
 				&lt;img src="img/sect3_3.png" alt&gt;
 				&lt;b&gt;&lt;span data-translate="29"&gt;Идеальный подарок&lt;/span&gt;&lt;/b&gt;
-				&lt;p&gt;&lt;span data-translate="30"&gt;Choker Butterfly  станет идеальным подарком любимой девушке, жене или дорогому человеку&lt;/span&gt;&lt;/p&gt;
+				&lt;p&gt;&lt;span data-translate="30"&gt;Choker Butterfly станет идеальным подарком любимой девушке, жене или дорогому человеку&lt;/span&gt;&lt;/p&gt;
 			&lt;/div&gt;
 			&lt;div class="sect3__item"&gt;
 				&lt;img src="img/sect3_4.png" alt&gt;
@@ -846,15 +848,19 @@
 					&lt;/div&gt;
 					&lt;div class="reviews__main"&gt;
 						&lt;div class="reviews__user reviews__user--left"&gt;&lt;img src="img/user.png" alt class="img"&gt;
-							&lt;p class="reviews__comment reviews__comment--left"&gt;&lt;img src="img/comment.png" alt class="reviews__comment--img"&gt;&lt;span data-translate="37"&gt;Добрый день! Очень понравилось украшение. Прикрепила фотог</v>
+							&lt;p class="reviews__comment reviews__comment--left"&gt;&lt;img src="img/comment.png" alt class="reviews__comment--img"&gt;&lt;span data-translate="37"&gt;Добрый день! Очень понравилось украшение. Прикрепила
+</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str" xml:space="preserve">
-        <v xml:space="preserve">рафию, чтобы показать как оно переливается на солнышке, оч здорово! Доставили быстро, качество отлично. У меня бывают аллергии на металл, но тут все отлично, ношу не снимая уже неделю&lt;/span&gt;&lt;/p&gt;
+        <v xml:space="preserve">								фотографию, чтобы показать как оно переливается на солнышке, оч здорово! Доставили
+								быстро, качество отлично. У меня бывают аллергии на металл, но тут все отлично, ношу не
+								снимая уже неделю&lt;/span&gt;&lt;/p&gt;
 						&lt;/div&gt;
 						&lt;div class="reviews__user reviews__user--righ"&gt;
-							&lt;p class="reviews__comment reviews__comment--righ"&gt;&lt;span data-translate="38"&gt;Добрый день, спасибо! Очень красива фотография)&lt;/span&gt;&lt;/p&gt;&lt;img src="img/user.png" alt class="img"&gt;
+							&lt;p class="reviews__comment reviews__comment--righ"&gt;&lt;span data-translate="38"&gt;Добрый день, спасибо! Очень красива
+								фотография)&lt;/span&gt;&lt;/p&gt;&lt;img src="img/user.png" alt class="img"&gt;
 						&lt;/div&gt;
 					&lt;/div&gt;
 					&lt;div class="reviews__bottom"&gt;
@@ -874,10 +880,13 @@
 					&lt;/div&gt;
 					&lt;div class="reviews__main"&gt;
 						&lt;div class="reviews__user reviews__user--left"&gt;&lt;img src="img/user.png" alt class="img"&gt;
-							&lt;p class="reviews__comment reviews__comment--left"&gt;&lt;img src="img/comment_3.png" alt class="reviews__comment--img"&gt;&lt;span data-translate="41"&gt;Добрый день. Заказывала дочери в подарок. Замечательный дизайн, смотрится изысканно, красиво переливаются кристаллы будто бриллиантики. Она очень довольно, носит каждый день!&lt;/span&gt;&lt;/p&gt;
+							&lt;p class="reviews__comment reviews__comment--left"&gt;&lt;img src="img/comment_3.png" alt class="reviews__comment--img"&gt;&lt;span data-translate="41"&gt;Добрый день. Заказывала дочери в подарок.
+								Замечательный дизайн, смотрится изысканно, красиво переливаются кристаллы будто
+								бриллиантики. Она очень довольно, носит каждый день!&lt;/span&gt;&lt;/p&gt;
 						&lt;/div&gt;
 						&lt;div class="reviews__user reviews__user--righ"&gt;
-							&lt;p class="reviews__comment reviews__comment--righ"&gt;&lt;span data-translate="42"&gt;Спасибо вам большое! Носите с удовольствием! &lt;/span&gt;&lt;/p&gt;&lt;img src="img/user.png" alt class="img"&gt;
+							&lt;p class="reviews__comment reviews__comment--righ"&gt;&lt;span data-translate="42"&gt;Спасибо вам большое! Носите с
+								удовольствием! &lt;/span&gt;&lt;/p&gt;&lt;img src="img/user.png" alt class="img"&gt;
 						&lt;/div&gt;
 					&lt;/div&gt;
 					&lt;div class="reviews__bottom"&gt;
@@ -897,15 +906,18 @@
 					&lt;/div&gt;
 					&lt;div class="reviews__main"&gt;
 						&lt;div class="reviews__user reviews__user--left"&gt;&lt;img src="img/user.png" alt class="img"&gt;
-							&lt;p class="reviews__comment reviews__comment--left"&gt;&lt;img src="img/comment_2.png" alt class="reviews__comment--img"&gt;&lt;span data-translate="45"&gt;Добрый день! Необычное, все замечают его и говорят, что классное украшение у меня) При солнечном свете камни играют и сверкают не хуже бриллиантов!!! &lt;/span&gt;&lt;/p&gt;
+							&lt;p class="reviews__comment reviews__comment--left"&gt;&lt;img src="img/comment_2.png" alt class="reviews__comment--img"&gt;&lt;span data-translate="45"&gt;Добрый день! Необычное, все замечают его и говорят,
+								что классное украшение у меня) При солнечном свете камни играют и сверкают не хуже
+								бриллиантов!!! &lt;/span&gt;&lt;/p&gt;
 						&lt;/div&gt;
 						&lt;div class="reviews__user reviews__user--righ"&gt;
-							&lt;p class="reviews__comment reviews__comment--righ"&gt;&lt;span data-translate="</v>
+			</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str" xml:space="preserve">
-        <v xml:space="preserve">46"&gt;Здравствуйте, спасибо! Очень красивая фотография!  &lt;/span&gt;&lt;/p&gt;&lt;img src="img/user.png" alt class="img"&gt;
+        <v xml:space="preserve">				&lt;p class="reviews__comment reviews__comment--righ"&gt;&lt;span data-translate="46"&gt;Здравствуйте, спасибо! Очень красивая
+								фотография! &lt;/span&gt;&lt;/p&gt;&lt;img src="img/user.png" alt class="img"&gt;
 						&lt;/div&gt;
 					&lt;/div&gt;
 					&lt;div class="reviews__bottom"&gt;
@@ -914,7 +926,7 @@
 			&lt;/div&gt;
 		&lt;/section&gt;
 		&lt;section class="sect6"&gt;
-			&lt;h2 class="sect min"&gt;&lt;span data-translate="47"&gt;Заказать Choker Butterfly  просто!&lt;/span&gt;&lt;/h2&gt;
+			&lt;h2 class="sect min"&gt;&lt;span data-translate="47"&gt;Заказать Choker Butterfly просто!&lt;/span&gt;&lt;/h2&gt;
 			&lt;div class="sect6__grid"&gt;
 				&lt;div class="sect6__item"&gt;&lt;img src="img/sect6_1.svg" alt&gt;
 					&lt;p&gt;&lt;span data-translate="48"&gt;Оставьте заявку на нашем сайте&lt;/span&gt;&lt;/p&gt;
@@ -931,7 +943,7 @@
 	&lt;footer class="intro"&gt;
 		&lt;div class="intro__top"&gt;
 			&lt;div class="text_top"&gt;
-				&lt;h2 class="intro_title"&gt;&lt;span data-translate="51"&gt;Butterfly  &lt;/span&gt;&lt;b&gt;&lt;span data-translate="52"&gt;Choker&lt;/span&gt;&lt;/b&gt;
+				&lt;h2 class="intro_title"&gt;&lt;span data-translate="51"&gt;Choker &lt;/span&gt;&lt;b&gt;&lt;span data-translate="52"&gt;Butterfly&lt;/span&gt;&lt;/b&gt;
 				&lt;/h2&gt;
 				&lt;p class="intro__subtitle"&gt;&lt;span data-translate="53"&gt;Стиль и роскошь в каждой детали &lt;/span&gt;&lt;/p&gt;
 			&lt;/div&gt;
@@ -969,13 +981,14 @@
 			&lt;a href="/legal-warning" target="_blank"&gt;&lt;span data-translate="66"&gt;Legal warning&lt;/span&gt;&lt;/a&gt;
 		&lt;/div&gt;
 	&lt;/div&gt;
-	&lt;script src="libs/carousel/owl.carousel.min.js"&gt;&lt;/script&gt;
-	&lt;script src="js/</v>
+</v>
       </c>
     </row>
     <row r="5" xml:space="preserve">
       <c r="A5" t="str" xml:space="preserve">
-        <v xml:space="preserve">timer.js"&gt;&lt;/script&gt;
+        <v xml:space="preserve">
+	&lt;script src="libs/carousel/owl.carousel.min.js"&gt;&lt;/script&gt;
+	&lt;script src="js/timer.js"&gt;&lt;/script&gt;
 	&lt;script src="js/common.js"&gt;&lt;/script&gt;
 &lt;/body&gt;&lt;/html&gt;</v>
       </c>
